--- a/lists/contributor_lists_2024-03-31.xlsx
+++ b/lists/contributor_lists_2024-03-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhasegaw/Dropbox/mark/projects/split_train_test/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEEBEFF-6A37-3C47-837F-23CC6982C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AC3C7-D034-ED42-8BA2-B4AA1EDF96DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6257D6F7-828A-6F4B-B069-D3EF8185C184}"/>
   </bookViews>
@@ -1046,13 +1046,13 @@
     <t>cfc6c40f-1390-4124-698d-08dc17913c94</t>
   </si>
   <si>
-    <t>uuid</t>
+    <t>ContributorID</t>
   </si>
   <si>
-    <t>list</t>
+    <t>List#</t>
   </si>
   <si>
-    <t>block</t>
+    <t>Block#</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:C3001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lists/contributor_lists_2024-03-31.xlsx
+++ b/lists/contributor_lists_2024-03-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhasegaw/Dropbox/mark/projects/split_train_test/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AC3C7-D034-ED42-8BA2-B4AA1EDF96DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535BB0A-20F4-254F-A68E-F4CB5A56DBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6257D6F7-828A-6F4B-B069-D3EF8185C184}"/>
   </bookViews>
@@ -1046,13 +1046,13 @@
     <t>cfc6c40f-1390-4124-698d-08dc17913c94</t>
   </si>
   <si>
-    <t>ContributorID</t>
+    <t>ContributorId</t>
   </si>
   <si>
-    <t>List#</t>
+    <t>ListName</t>
   </si>
   <si>
-    <t>Block#</t>
+    <t>BlockName</t>
   </si>
 </sst>
 </file>
